--- a/市場_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
+++ b/市場_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\詳細設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93C49C-BDAA-412F-BFFA-73FF167D0A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374FBD8C-F412-4FF4-9890-32A0CCC3A94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
   <si>
     <t>作成者</t>
   </si>
@@ -631,6 +631,16 @@
     <t>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>口座追加</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1285,6 +1295,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1294,20 +1319,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1315,103 +1343,74 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,10 +1420,57 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1433,42 +1479,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1874,7 +1884,7 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1907,50 +1917,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="64"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1973,10 +1983,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -1999,42 +2009,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="58" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="59"/>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
       <c r="N17" s="7" t="s">
         <v>75</v>
       </c>
@@ -2064,12 +2074,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2078,6 +2082,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,7 +2102,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -2106,52 +2116,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
       <c r="P2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="28"/>
@@ -2177,427 +2187,437 @@
       <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="B5" s="71">
+        <v>45001</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
+      <c r="B6" s="69">
+        <v>45889</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="31">
         <v>5</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="31">
         <v>6</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="31">
         <v>7</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="31">
         <v>8</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="31">
         <v>9</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="31">
         <v>10</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="31">
         <v>11</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="31">
         <v>12</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="31">
         <v>13</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="31">
         <v>14</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="31">
         <v>15</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="31">
         <v>16</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="31">
         <v>17</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="31">
         <v>18</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2608,14 +2628,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2632,62 +2700,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2713,213 +2733,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="119" t="str">
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="93" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="83" t="s">
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="84" t="s">
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="83" t="s">
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="80" t="str">
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="87" t="str">
         <f>表紙!H15</f>
         <v>メインメニュー</v>
       </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="83" t="s">
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="85">
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="91">
         <v>44752</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="83" t="s">
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="85"/>
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="85"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="86" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="87"/>
-      <c r="AQ3" s="87"/>
-      <c r="AR3" s="87"/>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="87"/>
-      <c r="AV3" s="87"/>
-      <c r="AW3" s="87"/>
-      <c r="AX3" s="87"/>
-      <c r="AY3" s="87"/>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="87"/>
-      <c r="BB3" s="87"/>
-      <c r="BC3" s="87"/>
-      <c r="BD3" s="87"/>
-      <c r="BE3" s="87"/>
-      <c r="BF3" s="88"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="79"/>
+      <c r="AR3" s="79"/>
+      <c r="AS3" s="79"/>
+      <c r="AT3" s="79"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="79"/>
+      <c r="AW3" s="79"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="79"/>
+      <c r="BF3" s="80"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="6"/>
@@ -2930,98 +2950,98 @@
     <row r="5" spans="1:58">
       <c r="A5" s="6"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="89" t="s">
+      <c r="AO5" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="91" t="s">
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="AV5" s="91"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="91"/>
-      <c r="AY5" s="91"/>
-      <c r="AZ5" s="91"/>
-      <c r="BA5" s="91"/>
-      <c r="BB5" s="91"/>
-      <c r="BC5" s="91"/>
-      <c r="BD5" s="91"/>
-      <c r="BE5" s="91"/>
-      <c r="BF5" s="92"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="83"/>
+      <c r="AX5" s="83"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="83"/>
+      <c r="BC5" s="83"/>
+      <c r="BD5" s="83"/>
+      <c r="BE5" s="83"/>
+      <c r="BF5" s="84"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="6"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="91"/>
-      <c r="AW6" s="91"/>
-      <c r="AX6" s="91"/>
-      <c r="AY6" s="91"/>
-      <c r="AZ6" s="91"/>
-      <c r="BA6" s="91"/>
-      <c r="BB6" s="91"/>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="92"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="83"/>
+      <c r="AX6" s="83"/>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="83"/>
+      <c r="BA6" s="83"/>
+      <c r="BB6" s="83"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="83"/>
+      <c r="BE6" s="83"/>
+      <c r="BF6" s="84"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="6"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="89" t="s">
+      <c r="AO7" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="91" t="s">
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91"/>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="91"/>
-      <c r="AZ7" s="91"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="91"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="92"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="84"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="6"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="91"/>
-      <c r="AV8" s="91"/>
-      <c r="AW8" s="91"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="91"/>
-      <c r="AZ8" s="91"/>
-      <c r="BA8" s="91"/>
-      <c r="BB8" s="91"/>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="92"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="83"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="84"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="6"/>
@@ -3473,12 +3493,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -3487,11 +3506,12 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3507,8 +3527,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3519,27 +3539,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="122" t="str">
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3552,24 +3572,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98" t="str">
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="113" t="str">
         <f>表紙!H15</f>
         <v>メインメニュー</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
       <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
@@ -3582,42 +3602,42 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93" t="s">
+      <c r="D4" s="98"/>
+      <c r="E4" s="98" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93" t="s">
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="38" t="s">
         <v>37</v>
       </c>
@@ -3633,24 +3653,24 @@
       <c r="J5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="93" t="str">
+      <c r="A6" s="98" t="str">
         <f>MID(K6,14,20)</f>
         <v>検針取り込み</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="93"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="40" t="s">
         <v>43</v>
       </c>
@@ -3661,26 +3681,26 @@
       <c r="J6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="93" t="str">
+      <c r="A7" s="98" t="str">
         <f>MID(K7,14,20)</f>
         <v>データ更新</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="93"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="40" t="s">
         <v>43</v>
       </c>
@@ -3689,26 +3709,26 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="101" t="s">
+      <c r="K7" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="93" t="str">
+      <c r="A8" s="98" t="str">
         <f>MID(K8,14,20)</f>
         <v>納付書</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="40" t="s">
         <v>43</v>
       </c>
@@ -3719,26 +3739,26 @@
       <c r="J8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="101" t="s">
+      <c r="K8" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="93" t="str">
+      <c r="A9" s="98" t="str">
         <f t="shared" ref="A9:A30" si="0">MID(K9,14,20)</f>
         <v>徴収簿</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="93"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="40" t="s">
         <v>43</v>
       </c>
@@ -3749,26 +3769,26 @@
       <c r="J9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="101" t="s">
+      <c r="K9" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="93" t="str">
+      <c r="A10" s="98" t="str">
         <f t="shared" si="0"/>
         <v>調定明細</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="93"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="40" t="s">
         <v>43</v>
       </c>
@@ -3779,25 +3799,25 @@
       <c r="J10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="101" t="s">
+      <c r="K10" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="40" t="s">
         <v>43</v>
       </c>
@@ -3806,26 +3826,26 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="93" t="str">
+      <c r="A12" s="98" t="str">
         <f t="shared" si="0"/>
         <v>テナント</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="40" t="s">
         <v>43</v>
       </c>
@@ -3836,26 +3856,26 @@
       <c r="J12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="101" t="s">
+      <c r="K12" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="93" t="str">
+      <c r="A13" s="98" t="str">
         <f t="shared" si="0"/>
         <v>テナント属性</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="40" t="s">
         <v>43</v>
       </c>
@@ -3866,26 +3886,26 @@
       <c r="J13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="93" t="str">
+      <c r="A14" s="98" t="str">
         <f t="shared" si="0"/>
         <v>メータ属性</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="40" t="s">
         <v>43</v>
       </c>
@@ -3896,26 +3916,26 @@
       <c r="J14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="101" t="s">
+      <c r="K14" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="108" t="str">
+      <c r="A15" s="96" t="str">
         <f t="shared" ref="A15" si="1">MID(K15,14,20)</f>
         <v>調整入力</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="108"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="57" t="s">
         <v>43</v>
       </c>
@@ -3923,27 +3943,29 @@
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="109" t="s">
+      <c r="J15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="108" t="str">
+      <c r="A16" s="96" t="str">
         <f t="shared" ref="A16:A17" si="2">MID(K16,14,20)</f>
         <v>口座データ</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="108"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="57" t="s">
         <v>43</v>
       </c>
@@ -3951,27 +3973,29 @@
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="109" t="s">
+      <c r="J16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="108" t="str">
+      <c r="A17" s="96" t="str">
         <f t="shared" si="2"/>
         <v>入金消込</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="108"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="57" t="s">
         <v>43</v>
       </c>
@@ -3979,46 +4003,48 @@
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="109" t="s">
+      <c r="J17" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="103"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="40"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="107"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="93" t="str">
+      <c r="A19" s="98" t="str">
         <f t="shared" si="0"/>
         <v>口径</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="40" t="s">
         <v>43</v>
       </c>
@@ -4027,26 +4053,26 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="101" t="s">
+      <c r="K19" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="93" t="str">
+      <c r="A20" s="98" t="str">
         <f t="shared" si="0"/>
         <v>按分設定</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="93"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="40" t="s">
         <v>43</v>
       </c>
@@ -4057,26 +4083,26 @@
       <c r="J20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="101" t="s">
+      <c r="K20" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="93" t="str">
+      <c r="A21" s="98" t="str">
         <f t="shared" si="0"/>
         <v>種別</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="93"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="40" t="s">
         <v>43</v>
       </c>
@@ -4085,25 +4111,25 @@
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="101" t="s">
+      <c r="K21" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="93"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="40" t="s">
         <v>43</v>
       </c>
@@ -4112,26 +4138,26 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="101" t="s">
+      <c r="K22" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="93" t="str">
+      <c r="A23" s="98" t="str">
         <f t="shared" si="0"/>
         <v>面積単価</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="93"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="40" t="s">
         <v>43</v>
       </c>
@@ -4142,26 +4168,26 @@
       <c r="J23" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="101" t="s">
+      <c r="K23" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="93" t="str">
+      <c r="A24" s="98" t="str">
         <f t="shared" si="0"/>
         <v>請求方法</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="93"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="40" t="s">
         <v>43</v>
       </c>
@@ -4172,26 +4198,26 @@
       <c r="J24" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="101" t="s">
+      <c r="K24" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="93" t="str">
+      <c r="A25" s="98" t="str">
         <f t="shared" si="0"/>
         <v>従量電灯A</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="93"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="40" t="s">
         <v>43</v>
       </c>
@@ -4202,26 +4228,26 @@
       <c r="J25" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="101" t="s">
+      <c r="K25" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="93" t="str">
+      <c r="A26" s="98" t="str">
         <f t="shared" si="0"/>
         <v>水道</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="93"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="40" t="s">
         <v>43</v>
       </c>
@@ -4232,26 +4258,26 @@
       <c r="J26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="101" t="s">
+      <c r="K26" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="93" t="str">
+      <c r="A27" s="98" t="str">
         <f t="shared" si="0"/>
         <v>業務用電力</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="93"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="40" t="s">
         <v>43</v>
       </c>
@@ -4262,26 +4288,26 @@
       <c r="J27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="101" t="s">
+      <c r="K27" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="93" t="str">
+      <c r="A28" s="98" t="str">
         <f t="shared" si="0"/>
         <v>下水道</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93" t="s">
+      <c r="B28" s="98"/>
+      <c r="C28" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="93"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="40" t="s">
         <v>43</v>
       </c>
@@ -4290,26 +4316,26 @@
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="101" t="s">
+      <c r="K28" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="93" t="str">
+      <c r="A29" s="98" t="str">
         <f t="shared" si="0"/>
         <v>バックアップ</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="93"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="40" t="s">
         <v>43</v>
       </c>
@@ -4318,26 +4344,26 @@
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
-      <c r="K29" s="101" t="s">
+      <c r="K29" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="93" t="str">
+      <c r="A30" s="98" t="str">
         <f t="shared" si="0"/>
         <v>システム</v>
       </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="93"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="40" t="s">
         <v>43</v>
       </c>
@@ -4346,107 +4372,94 @@
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="101" t="s">
+      <c r="K30" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="40"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="40"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="A9:B9"/>
@@ -4463,38 +4476,51 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4520,27 +4546,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="122" t="str">
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4555,24 +4581,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98" t="str">
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="113" t="str">
         <f>表紙!H15</f>
         <v>メインメニュー</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
       <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
@@ -4587,498 +4613,481 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="112"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="124"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="115"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="118"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="121"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="112"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="124"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="115"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="121"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41"/>
       <c r="B14" s="42"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="112"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="124"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="118"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="115"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="118"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="121"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="112"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="124"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="118"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="115"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="118"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="121"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="42"/>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="112"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="124"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="115"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="118"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="118"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C22:Q22"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="C15:Q15"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:Q19"/>
-    <mergeCell ref="C20:Q20"/>
-    <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C10:Q10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -5092,6 +5101,23 @@
     <mergeCell ref="C7:Q7"/>
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="C15:Q15"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C20:Q20"/>
+    <mergeCell ref="C21:Q21"/>
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/市場_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
+++ b/市場_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374FBD8C-F412-4FF4-9890-32A0CCC3A94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD2986D-B9BA-4593-9EAF-3236EA897996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -1295,6 +1295,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1310,44 +1319,68 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,47 +1403,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1420,38 +1449,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1469,15 +1478,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1884,7 +1884,7 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1917,50 +1917,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="64"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="67"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1983,10 +1983,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="59"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2009,42 +2009,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="59"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="58" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="59"/>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="59"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="59"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
       <c r="N17" s="7" t="s">
         <v>75</v>
       </c>
@@ -2074,6 +2074,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2082,12 +2088,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,8 +2101,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -2116,52 +2116,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="77" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
       <c r="P1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="28"/>
@@ -2187,437 +2187,437 @@
       <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="73">
         <v>45001</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="69">
-        <v>45889</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72" t="s">
+      <c r="B6" s="75">
+        <v>45905</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="70" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="31">
         <v>5</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="31">
         <v>6</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="31">
         <v>7</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="31">
         <v>8</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="31">
         <v>9</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="31">
         <v>10</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="31">
         <v>11</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="31">
         <v>12</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="31">
         <v>13</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="31">
         <v>14</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="31">
         <v>15</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="31">
         <v>16</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="31">
         <v>17</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="31">
         <v>18</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2628,30 +2628,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -2668,46 +2684,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2733,213 +2733,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="86" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="93" t="str">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="80" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="90" t="s">
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="85" t="s">
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="90" t="s">
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="85"/>
-      <c r="BB1" s="85"/>
-      <c r="BC1" s="85"/>
-      <c r="BD1" s="85"/>
-      <c r="BE1" s="85"/>
-      <c r="BF1" s="85"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="86" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="87" t="str">
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="85" t="str">
         <f>表紙!H15</f>
         <v>メインメニュー</v>
       </c>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="90" t="s">
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="91">
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="88">
         <v>44752</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="90" t="s">
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="90"/>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="90"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="85"/>
-      <c r="BD2" s="85"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="78" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="79"/>
-      <c r="AS3" s="79"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="79"/>
-      <c r="BF3" s="80"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="91"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="6"/>
@@ -2950,98 +2950,98 @@
     <row r="5" spans="1:58">
       <c r="A5" s="6"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="81" t="s">
+      <c r="AO5" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="83" t="s">
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="84"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="94"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="94"/>
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="95"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="6"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="83"/>
-      <c r="AV6" s="83"/>
-      <c r="AW6" s="83"/>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="83"/>
-      <c r="AZ6" s="83"/>
-      <c r="BA6" s="83"/>
-      <c r="BB6" s="83"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="83"/>
-      <c r="BE6" s="83"/>
-      <c r="BF6" s="84"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="94"/>
+      <c r="AW6" s="94"/>
+      <c r="AX6" s="94"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="94"/>
+      <c r="BB6" s="94"/>
+      <c r="BC6" s="94"/>
+      <c r="BD6" s="94"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="95"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="6"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="81" t="s">
+      <c r="AO7" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="83" t="s">
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="83"/>
-      <c r="BA7" s="83"/>
-      <c r="BB7" s="83"/>
-      <c r="BC7" s="83"/>
-      <c r="BD7" s="83"/>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="84"/>
+      <c r="AV7" s="94"/>
+      <c r="AW7" s="94"/>
+      <c r="AX7" s="94"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="94"/>
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="95"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="6"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="83"/>
-      <c r="AV8" s="83"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="83"/>
-      <c r="AY8" s="83"/>
-      <c r="AZ8" s="83"/>
-      <c r="BA8" s="83"/>
-      <c r="BB8" s="83"/>
-      <c r="BC8" s="83"/>
-      <c r="BD8" s="83"/>
-      <c r="BE8" s="83"/>
-      <c r="BF8" s="84"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="94"/>
+      <c r="AX8" s="94"/>
+      <c r="AY8" s="94"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="94"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="95"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="6"/>
@@ -3493,11 +3493,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -3506,12 +3507,11 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3527,7 +3527,7 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15:Q15"/>
     </sheetView>
   </sheetViews>
@@ -3539,27 +3539,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="110" t="str">
+      <c r="D1" s="99"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
       <c r="N1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3572,24 +3572,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="113" t="str">
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="104" t="str">
         <f>表紙!H15</f>
         <v>メインメニュー</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
       <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
@@ -3602,42 +3602,42 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98" t="s">
+      <c r="D4" s="96"/>
+      <c r="E4" s="96" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98" t="s">
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="38" t="s">
         <v>37</v>
       </c>
@@ -3653,24 +3653,24 @@
       <c r="J5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="98" t="str">
+      <c r="A6" s="96" t="str">
         <f>MID(K6,14,20)</f>
         <v>検針取り込み</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="40" t="s">
         <v>43</v>
       </c>
@@ -3681,26 +3681,26 @@
       <c r="J6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="98" t="str">
+      <c r="A7" s="96" t="str">
         <f>MID(K7,14,20)</f>
         <v>データ更新</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="98"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="40" t="s">
         <v>43</v>
       </c>
@@ -3709,26 +3709,26 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="98" t="str">
+      <c r="A8" s="96" t="str">
         <f>MID(K8,14,20)</f>
         <v>納付書</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="98"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="40" t="s">
         <v>43</v>
       </c>
@@ -3739,26 +3739,26 @@
       <c r="J8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="99" t="s">
+      <c r="K8" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="98" t="str">
+      <c r="A9" s="96" t="str">
         <f t="shared" ref="A9:A30" si="0">MID(K9,14,20)</f>
         <v>徴収簿</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98" t="s">
+      <c r="B9" s="96"/>
+      <c r="C9" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="98"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="40" t="s">
         <v>43</v>
       </c>
@@ -3769,26 +3769,26 @@
       <c r="J9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="99" t="s">
+      <c r="K9" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="98" t="str">
+      <c r="A10" s="96" t="str">
         <f t="shared" si="0"/>
         <v>調定明細</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="98"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="40" t="s">
         <v>43</v>
       </c>
@@ -3799,25 +3799,25 @@
       <c r="J10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="98"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="40" t="s">
         <v>43</v>
       </c>
@@ -3826,26 +3826,26 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="99" t="s">
+      <c r="K11" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="98" t="str">
+      <c r="A12" s="96" t="str">
         <f t="shared" si="0"/>
         <v>テナント</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98" t="s">
+      <c r="B12" s="96"/>
+      <c r="C12" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="98"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="40" t="s">
         <v>43</v>
       </c>
@@ -3856,26 +3856,26 @@
       <c r="J12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="99" t="s">
+      <c r="K12" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="98" t="str">
+      <c r="A13" s="96" t="str">
         <f t="shared" si="0"/>
         <v>テナント属性</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="98"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="40" t="s">
         <v>43</v>
       </c>
@@ -3886,26 +3886,26 @@
       <c r="J13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="99" t="s">
+      <c r="K13" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="98" t="str">
+      <c r="A14" s="96" t="str">
         <f t="shared" si="0"/>
         <v>メータ属性</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="98"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="40" t="s">
         <v>43</v>
       </c>
@@ -3916,26 +3916,26 @@
       <c r="J14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="99" t="s">
+      <c r="K14" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="96" t="str">
+      <c r="A15" s="114" t="str">
         <f t="shared" ref="A15" si="1">MID(K15,14,20)</f>
         <v>調整入力</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="96"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="57" t="s">
         <v>43</v>
       </c>
@@ -3946,26 +3946,26 @@
       <c r="J15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="97" t="s">
+      <c r="K15" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="96" t="str">
+      <c r="A16" s="114" t="str">
         <f t="shared" ref="A16:A17" si="2">MID(K16,14,20)</f>
         <v>口座データ</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="96"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="57" t="s">
         <v>43</v>
       </c>
@@ -3976,26 +3976,26 @@
       <c r="J16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="97" t="s">
+      <c r="K16" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="96" t="str">
+      <c r="A17" s="114" t="str">
         <f t="shared" si="2"/>
         <v>入金消込</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="114"/>
+      <c r="C17" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="96"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="57" t="s">
         <v>43</v>
       </c>
@@ -4006,45 +4006,45 @@
       <c r="J17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="97" t="s">
+      <c r="K17" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="100"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="40"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="104"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="113"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="98" t="str">
+      <c r="A19" s="96" t="str">
         <f t="shared" si="0"/>
         <v>口径</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="98"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="40" t="s">
         <v>43</v>
       </c>
@@ -4053,26 +4053,26 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="99" t="s">
+      <c r="K19" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="98" t="str">
+      <c r="A20" s="96" t="str">
         <f t="shared" si="0"/>
         <v>按分設定</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="98"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="40" t="s">
         <v>43</v>
       </c>
@@ -4083,26 +4083,26 @@
       <c r="J20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="99" t="s">
+      <c r="K20" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="98" t="str">
+      <c r="A21" s="96" t="str">
         <f t="shared" si="0"/>
         <v>種別</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="40" t="s">
         <v>43</v>
       </c>
@@ -4111,25 +4111,25 @@
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="99" t="s">
+      <c r="K21" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="98"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="40" t="s">
         <v>43</v>
       </c>
@@ -4138,26 +4138,26 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="99" t="s">
+      <c r="K22" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="98" t="str">
+      <c r="A23" s="96" t="str">
         <f t="shared" si="0"/>
         <v>面積単価</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="98"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="40" t="s">
         <v>43</v>
       </c>
@@ -4168,26 +4168,26 @@
       <c r="J23" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="99" t="s">
+      <c r="K23" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="98" t="str">
+      <c r="A24" s="96" t="str">
         <f t="shared" si="0"/>
         <v>請求方法</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="98"/>
+      <c r="D24" s="96"/>
       <c r="E24" s="40" t="s">
         <v>43</v>
       </c>
@@ -4198,26 +4198,26 @@
       <c r="J24" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="99" t="s">
+      <c r="K24" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="98" t="str">
+      <c r="A25" s="96" t="str">
         <f t="shared" si="0"/>
         <v>従量電灯A</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98" t="s">
+      <c r="B25" s="96"/>
+      <c r="C25" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="98"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="40" t="s">
         <v>43</v>
       </c>
@@ -4228,26 +4228,26 @@
       <c r="J25" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="99" t="s">
+      <c r="K25" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="98" t="str">
+      <c r="A26" s="96" t="str">
         <f t="shared" si="0"/>
         <v>水道</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98" t="s">
+      <c r="B26" s="96"/>
+      <c r="C26" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="96"/>
       <c r="E26" s="40" t="s">
         <v>43</v>
       </c>
@@ -4258,26 +4258,26 @@
       <c r="J26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="99" t="s">
+      <c r="K26" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="98" t="str">
+      <c r="A27" s="96" t="str">
         <f t="shared" si="0"/>
         <v>業務用電力</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98" t="s">
+      <c r="B27" s="96"/>
+      <c r="C27" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="98"/>
+      <c r="D27" s="96"/>
       <c r="E27" s="40" t="s">
         <v>43</v>
       </c>
@@ -4288,26 +4288,26 @@
       <c r="J27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="99" t="s">
+      <c r="K27" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="98" t="str">
+      <c r="A28" s="96" t="str">
         <f t="shared" si="0"/>
         <v>下水道</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98" t="s">
+      <c r="B28" s="96"/>
+      <c r="C28" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="98"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="40" t="s">
         <v>43</v>
       </c>
@@ -4316,26 +4316,26 @@
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="99" t="s">
+      <c r="K28" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="98" t="str">
+      <c r="A29" s="96" t="str">
         <f t="shared" si="0"/>
         <v>バックアップ</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98" t="s">
+      <c r="B29" s="96"/>
+      <c r="C29" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="98"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="40" t="s">
         <v>43</v>
       </c>
@@ -4344,26 +4344,26 @@
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
-      <c r="K29" s="99" t="s">
+      <c r="K29" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="98" t="str">
+      <c r="A30" s="96" t="str">
         <f t="shared" si="0"/>
         <v>システム</v>
       </c>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98" t="s">
+      <c r="B30" s="96"/>
+      <c r="C30" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="98"/>
+      <c r="D30" s="96"/>
       <c r="E30" s="40" t="s">
         <v>43</v>
       </c>
@@ -4372,78 +4372,123 @@
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="99" t="s">
+      <c r="K30" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="40"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="40"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K23:Q23"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="K8:Q8"/>
@@ -4460,67 +4505,22 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4546,27 +4546,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="110" t="str">
+      <c r="D1" s="99"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
       <c r="N1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4581,24 +4581,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="113" t="str">
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="104" t="str">
         <f>表紙!H15</f>
         <v>メインメニュー</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="115"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
       <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
@@ -4613,481 +4613,498 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="124"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="118"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="118"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="121"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="121"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="121"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="124"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="124"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="121"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="121"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="124"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41"/>
       <c r="B14" s="42"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="124"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="121"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="121"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="121"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="121"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="121"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="121"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="124"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="124"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="121"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="121"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="124"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="42"/>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="124"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="118"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="118"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="121"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="121"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="C15:Q15"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C20:Q20"/>
+    <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C10:Q10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -5101,23 +5118,6 @@
     <mergeCell ref="C7:Q7"/>
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="C22:Q22"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="C15:Q15"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:Q19"/>
-    <mergeCell ref="C20:Q20"/>
-    <mergeCell ref="C21:Q21"/>
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/市場_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
+++ b/市場_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD2986D-B9BA-4593-9EAF-3236EA897996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE2047-1469-4A73-B82C-A6FA4E5F7171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -555,16 +555,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>CommandButton調整入力</t>
-    <rPh sb="13" eb="15">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CommandButton口座データ</t>
     <rPh sb="13" eb="15">
       <t>コウザ</t>
@@ -639,6 +629,19 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommandButton調定入力</t>
+    <rPh sb="13" eb="14">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1295,6 +1298,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1304,20 +1322,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,36 +1346,57 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,82 +1406,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1449,10 +1423,57 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1460,24 +1481,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1572,22 +1575,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>157482</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>124349</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1085E4B7-5C13-92A1-E244-E6E6D15C2174}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1D373B-CBF5-D91C-73DC-0C6069393BF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,15 +1599,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104776" y="857251"/>
-          <a:ext cx="7291706" cy="4171950"/>
+          <a:off x="0" y="922020"/>
+          <a:ext cx="6494669" cy="3810000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1888,12 +1897,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="8.75" style="7"/>
-    <col min="13" max="13" width="8.25" style="7" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="8.75" style="7"/>
+    <col min="1" max="12" width="8.77734375" style="7"/>
+    <col min="13" max="13" width="8.21875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="22.5" customHeight="1">
@@ -1917,50 +1926,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67"/>
+      <c r="C7" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="64"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
+      <c r="D8" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1983,10 +1992,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2009,42 +2018,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="58" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="59"/>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
       <c r="N17" s="7" t="s">
         <v>75</v>
       </c>
@@ -2074,12 +2083,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2088,6 +2091,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,67 +2110,67 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="27" customWidth="1"/>
-    <col min="4" max="14" width="7.125" style="27" customWidth="1"/>
-    <col min="15" max="18" width="10.625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="27" customWidth="1"/>
+    <col min="4" max="14" width="7.109375" style="27" customWidth="1"/>
+    <col min="15" max="18" width="10.6640625" style="27" customWidth="1"/>
     <col min="19" max="16384" width="7" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
       <c r="P1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
       <c r="P2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="28"/>
@@ -2187,437 +2196,437 @@
       <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="71">
         <v>45001</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="69">
         <v>45905</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="74" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="31">
         <v>3</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="31">
         <v>5</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="31">
         <v>6</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="31">
         <v>7</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="31">
         <v>8</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="31">
         <v>9</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="31">
         <v>10</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="31">
         <v>11</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="31">
         <v>12</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="31">
         <v>13</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="31">
         <v>14</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="31">
         <v>15</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="31">
         <v>16</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="31">
         <v>17</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="31">
         <v>18</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2628,14 +2637,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2652,62 +2709,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2723,223 +2732,223 @@
   </sheetPr>
   <dimension ref="A1:BF47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:AN3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="1"/>
+    <col min="1" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="80" t="str">
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="93" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="83" t="s">
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="84" t="s">
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="83" t="s">
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="79" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="85" t="str">
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="87" t="str">
         <f>表紙!H15</f>
         <v>メインメニュー</v>
       </c>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="83" t="s">
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="88">
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="91">
         <v>44752</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="83" t="s">
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="85"/>
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="85"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="89" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="91"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="79"/>
+      <c r="AR3" s="79"/>
+      <c r="AS3" s="79"/>
+      <c r="AT3" s="79"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="79"/>
+      <c r="AW3" s="79"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BA3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="79"/>
+      <c r="BF3" s="80"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="6"/>
@@ -2950,98 +2959,98 @@
     <row r="5" spans="1:58">
       <c r="A5" s="6"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="92" t="s">
+      <c r="AO5" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="94" t="s">
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="94"/>
-      <c r="AY5" s="94"/>
-      <c r="AZ5" s="94"/>
-      <c r="BA5" s="94"/>
-      <c r="BB5" s="94"/>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
-      <c r="BE5" s="94"/>
-      <c r="BF5" s="95"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="83"/>
+      <c r="AX5" s="83"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="83"/>
+      <c r="BC5" s="83"/>
+      <c r="BD5" s="83"/>
+      <c r="BE5" s="83"/>
+      <c r="BF5" s="84"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="6"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="93"/>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="94"/>
-      <c r="AV6" s="94"/>
-      <c r="AW6" s="94"/>
-      <c r="AX6" s="94"/>
-      <c r="AY6" s="94"/>
-      <c r="AZ6" s="94"/>
-      <c r="BA6" s="94"/>
-      <c r="BB6" s="94"/>
-      <c r="BC6" s="94"/>
-      <c r="BD6" s="94"/>
-      <c r="BE6" s="94"/>
-      <c r="BF6" s="95"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="83"/>
+      <c r="AX6" s="83"/>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="83"/>
+      <c r="BA6" s="83"/>
+      <c r="BB6" s="83"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="83"/>
+      <c r="BE6" s="83"/>
+      <c r="BF6" s="84"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="6"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="92" t="s">
+      <c r="AO7" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="94" t="s">
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="94"/>
-      <c r="AX7" s="94"/>
-      <c r="AY7" s="94"/>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="94"/>
-      <c r="BB7" s="94"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="94"/>
-      <c r="BE7" s="94"/>
-      <c r="BF7" s="95"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="84"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="6"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="94"/>
-      <c r="AW8" s="94"/>
-      <c r="AX8" s="94"/>
-      <c r="AY8" s="94"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="94"/>
-      <c r="BC8" s="94"/>
-      <c r="BD8" s="94"/>
-      <c r="BE8" s="94"/>
-      <c r="BF8" s="95"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="83"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="84"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="6"/>
@@ -3493,12 +3502,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -3507,11 +3515,12 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3527,39 +3536,39 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="9" width="9" style="39"/>
-    <col min="10" max="10" width="10.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101" t="str">
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3572,24 +3581,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="104" t="str">
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="113" t="str">
         <f>表紙!H15</f>
         <v>メインメニュー</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
       <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
@@ -3602,42 +3611,42 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96" t="s">
+      <c r="D4" s="98"/>
+      <c r="E4" s="98" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96" t="s">
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="38" t="s">
         <v>37</v>
       </c>
@@ -3653,24 +3662,24 @@
       <c r="J5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="98" t="str">
         <f>MID(K6,14,20)</f>
         <v>検針取り込み</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="40" t="s">
         <v>43</v>
       </c>
@@ -3681,26 +3690,26 @@
       <c r="J6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="96" t="str">
+      <c r="A7" s="98" t="str">
         <f>MID(K7,14,20)</f>
         <v>データ更新</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="96"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="40" t="s">
         <v>43</v>
       </c>
@@ -3709,26 +3718,26 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="107" t="s">
+      <c r="K7" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="96" t="str">
+      <c r="A8" s="98" t="str">
         <f>MID(K8,14,20)</f>
         <v>納付書</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="96"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="40" t="s">
         <v>43</v>
       </c>
@@ -3739,26 +3748,26 @@
       <c r="J8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="107" t="s">
+      <c r="K8" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="96" t="str">
+      <c r="A9" s="98" t="str">
         <f t="shared" ref="A9:A30" si="0">MID(K9,14,20)</f>
         <v>徴収簿</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="96"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="40" t="s">
         <v>43</v>
       </c>
@@ -3769,26 +3778,26 @@
       <c r="J9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="107" t="s">
+      <c r="K9" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="96" t="str">
+      <c r="A10" s="98" t="str">
         <f t="shared" si="0"/>
         <v>調定明細</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="96"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="40" t="s">
         <v>43</v>
       </c>
@@ -3799,25 +3808,25 @@
       <c r="J10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="107" t="s">
+      <c r="K10" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="96"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="40" t="s">
         <v>43</v>
       </c>
@@ -3826,26 +3835,26 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="107" t="s">
+      <c r="K11" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="96" t="str">
+      <c r="A12" s="98" t="str">
         <f t="shared" si="0"/>
         <v>テナント</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="96"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="40" t="s">
         <v>43</v>
       </c>
@@ -3856,26 +3865,26 @@
       <c r="J12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="107" t="s">
+      <c r="K12" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="96" t="str">
+      <c r="A13" s="98" t="str">
         <f t="shared" si="0"/>
         <v>テナント属性</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="96"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="40" t="s">
         <v>43</v>
       </c>
@@ -3886,26 +3895,26 @@
       <c r="J13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="107" t="s">
+      <c r="K13" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="96" t="str">
+      <c r="A14" s="98" t="str">
         <f t="shared" si="0"/>
         <v>メータ属性</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="96"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="40" t="s">
         <v>43</v>
       </c>
@@ -3916,26 +3925,26 @@
       <c r="J14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="107" t="s">
+      <c r="K14" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="114" t="str">
-        <f t="shared" ref="A15" si="1">MID(K15,14,20)</f>
-        <v>調整入力</v>
-      </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114" t="s">
+      <c r="A15" s="96" t="str">
+        <f>MID(K15,14,20)</f>
+        <v>調定入力</v>
+      </c>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="114"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="57" t="s">
         <v>43</v>
       </c>
@@ -3946,26 +3955,26 @@
       <c r="J15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
+      <c r="K15" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="114" t="str">
-        <f t="shared" ref="A16:A17" si="2">MID(K16,14,20)</f>
+      <c r="A16" s="96" t="str">
+        <f t="shared" ref="A16:A17" si="1">MID(K16,14,20)</f>
         <v>口座データ</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="114"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="57" t="s">
         <v>43</v>
       </c>
@@ -3976,26 +3985,26 @@
       <c r="J16" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
+      <c r="K16" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="114" t="str">
-        <f t="shared" si="2"/>
+      <c r="A17" s="96" t="str">
+        <f t="shared" si="1"/>
         <v>入金消込</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="114"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="57" t="s">
         <v>43</v>
       </c>
@@ -4006,45 +4015,45 @@
       <c r="J17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
+      <c r="K17" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="109"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="40"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="113"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="96" t="str">
+      <c r="A19" s="98" t="str">
         <f t="shared" si="0"/>
         <v>口径</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="96"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="40" t="s">
         <v>43</v>
       </c>
@@ -4053,26 +4062,26 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="107" t="s">
+      <c r="K19" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="96" t="str">
+      <c r="A20" s="98" t="str">
         <f t="shared" si="0"/>
         <v>按分設定</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="96"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="40" t="s">
         <v>43</v>
       </c>
@@ -4083,26 +4092,26 @@
       <c r="J20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="107" t="s">
+      <c r="K20" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="96" t="str">
+      <c r="A21" s="98" t="str">
         <f t="shared" si="0"/>
         <v>種別</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="96"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="40" t="s">
         <v>43</v>
       </c>
@@ -4111,25 +4120,25 @@
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="107" t="s">
+      <c r="K21" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="96"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="40" t="s">
         <v>43</v>
       </c>
@@ -4138,26 +4147,26 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="107" t="s">
+      <c r="K22" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="96" t="str">
+      <c r="A23" s="98" t="str">
         <f t="shared" si="0"/>
         <v>面積単価</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="96"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="40" t="s">
         <v>43</v>
       </c>
@@ -4168,26 +4177,26 @@
       <c r="J23" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="107" t="s">
+      <c r="K23" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="96" t="str">
+      <c r="A24" s="98" t="str">
         <f t="shared" si="0"/>
         <v>請求方法</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="96"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="40" t="s">
         <v>43</v>
       </c>
@@ -4198,26 +4207,26 @@
       <c r="J24" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K24" s="107" t="s">
+      <c r="K24" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="96" t="str">
+      <c r="A25" s="98" t="str">
         <f t="shared" si="0"/>
         <v>従量電灯A</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="96"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="40" t="s">
         <v>43</v>
       </c>
@@ -4228,26 +4237,26 @@
       <c r="J25" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K25" s="107" t="s">
+      <c r="K25" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="96" t="str">
+      <c r="A26" s="98" t="str">
         <f t="shared" si="0"/>
         <v>水道</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="96"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="40" t="s">
         <v>43</v>
       </c>
@@ -4258,26 +4267,26 @@
       <c r="J26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="107" t="s">
+      <c r="K26" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="96" t="str">
+      <c r="A27" s="98" t="str">
         <f t="shared" si="0"/>
         <v>業務用電力</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="96"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="40" t="s">
         <v>43</v>
       </c>
@@ -4288,26 +4297,26 @@
       <c r="J27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="107" t="s">
+      <c r="K27" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="96" t="str">
+      <c r="A28" s="98" t="str">
         <f t="shared" si="0"/>
         <v>下水道</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96" t="s">
+      <c r="B28" s="98"/>
+      <c r="C28" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="96"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="40" t="s">
         <v>43</v>
       </c>
@@ -4316,26 +4325,26 @@
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="107" t="s">
+      <c r="K28" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="96" t="str">
+      <c r="A29" s="98" t="str">
         <f t="shared" si="0"/>
         <v>バックアップ</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="96"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="40" t="s">
         <v>43</v>
       </c>
@@ -4344,26 +4353,26 @@
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
-      <c r="K29" s="107" t="s">
+      <c r="K29" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="96" t="str">
+      <c r="A30" s="98" t="str">
         <f t="shared" si="0"/>
         <v>システム</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="96"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="40" t="s">
         <v>43</v>
       </c>
@@ -4372,107 +4381,94 @@
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="107" t="s">
+      <c r="K30" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="40"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="40"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="A9:B9"/>
@@ -4489,38 +4485,51 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4539,34 +4548,34 @@
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="39" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="39" customWidth="1"/>
     <col min="2" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101" t="str">
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4577,28 +4586,28 @@
         <v>5</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="104" t="str">
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="113" t="str">
         <f>表紙!H15</f>
         <v>メインメニュー</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
       <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
@@ -4613,498 +4622,481 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="118"/>
+      <c r="C5" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="124"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="119" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="121"/>
+      <c r="C6" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="121"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="118"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="121"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="124"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="121"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="124"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="121"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="121"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="124"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="121"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41"/>
       <c r="B14" s="42"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="124"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="121"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="121"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="118"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="121"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="118"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="121"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="121"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="124"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="121"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="41"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="124"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="121"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="118"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="121"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="118"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="124"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="121"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="42"/>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="124"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="121"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="118"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="124"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C22:Q22"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="C15:Q15"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C19:Q19"/>
-    <mergeCell ref="C20:Q20"/>
-    <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C10:Q10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -5118,6 +5110,23 @@
     <mergeCell ref="C7:Q7"/>
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="C15:Q15"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C20:Q20"/>
+    <mergeCell ref="C21:Q21"/>
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
